--- a/biology/Botanique/Forêt_de_Gouffern/Forêt_de_Gouffern.xlsx
+++ b/biology/Botanique/Forêt_de_Gouffern/Forêt_de_Gouffern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gouffern</t>
+          <t>Forêt_de_Gouffern</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Gouffern est située dans le département de l'Orne en région Normandie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gouffern</t>
+          <t>Forêt_de_Gouffern</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt se divise en deux parties : la forêt de Grande Gouffern  et la forêt de Petite Gouffern, séparées par l'Ure, affluent de l'Orne.
 La forêt de Petite Gouffern (48° 43′ 55″ N, 0° 04′ 58″ E) est séparée entre la forêt domaniale et la forêt privée du pavillon de Gouffern. Elle s'étend sur les communes de Silly-en-Gouffern et d'Almenêches, à quelques kilomètres de la ville d'Argentan. Elle occupe un plateau situé au sud-est des collines boisées de Grande-Gouffern. L'altitude moyenne est de 210 mètres, les pentes sont assez faibles.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gouffern</t>
+          <t>Forêt_de_Gouffern</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Gouffern est en zone naturelle d'intérêt écologique, faunistique et floristique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Gouffern est en zone naturelle d'intérêt écologique, faunistique et floristique.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gouffern</t>
+          <t>Forêt_de_Gouffern</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Gouffern est attesté sous les formes [redditio de] Gulferno en 1068 ; [foresta] Gulfer en 1080 - 1082 ; Gouffernum en 1143 ; [nemus] Guferni en 1152 et 1167 ; [foresta] Gufferni [de Vinaz] en 1171 ; [foresta de] Goffer en 1154 / 1184 / 1195 / 1269[2].
-Il s'agit d'un anthroponyme employé absolument[2]. Il est possible que Gouffern représente Gulferius, nom d’homme germanique cité par Marie-Thérèse Morlet et porté par des Normands comme Gulferius de Vilereit à la fin du XIe siècle et Gufer de Chauvincourt en 1218[2]. Il subsiste dans les actuels patronymes Goulfier et Gouffier. Cependant, si le -n final de certaines formes anciennes et de la forme actuelle Gouffern n'est pas postiche, il peut s'agir d'un autre nom de personne germanique à savoir Wulfern, encore porté comme patronyme en Basse-Saxe (Allemagne)[3],[2]. Gouffern se trouvant au sud de la ligne Joret et au sud de l'isoglosse W- (&gt; V-) / G(u)-, l'évolution Wulfern &gt; Gouffern est phonétiquement régulière. De manière sans doute fortuite l'élément Wulf- de l'anthroponyme signifie « loup » en vieux saxon (allemand Wolf, anglais wolf).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Gouffern est attesté sous les formes [redditio de] Gulferno en 1068 ; [foresta] Gulfer en 1080 - 1082 ; Gouffernum en 1143 ; [nemus] Guferni en 1152 et 1167 ; [foresta] Gufferni [de Vinaz] en 1171 ; [foresta de] Goffer en 1154 / 1184 / 1195 / 1269.
+Il s'agit d'un anthroponyme employé absolument. Il est possible que Gouffern représente Gulferius, nom d’homme germanique cité par Marie-Thérèse Morlet et porté par des Normands comme Gulferius de Vilereit à la fin du XIe siècle et Gufer de Chauvincourt en 1218. Il subsiste dans les actuels patronymes Goulfier et Gouffier. Cependant, si le -n final de certaines formes anciennes et de la forme actuelle Gouffern n'est pas postiche, il peut s'agir d'un autre nom de personne germanique à savoir Wulfern, encore porté comme patronyme en Basse-Saxe (Allemagne),. Gouffern se trouvant au sud de la ligne Joret et au sud de l'isoglosse W- (&gt; V-) / G(u)-, l'évolution Wulfern &gt; Gouffern est phonétiquement régulière. De manière sans doute fortuite l'élément Wulf- de l'anthroponyme signifie « loup » en vieux saxon (allemand Wolf, anglais wolf).
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gouffern</t>
+          <t>Forêt_de_Gouffern</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De tout temps, la forêt de Gouffern a été divisée en deux parties : la Grande Gouffern au nord et la Petite Gouffern au sud.
 La forêt faisait autrefois partie du domaine royal. 
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gouffern</t>
+          <t>Forêt_de_Gouffern</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,13 +671,15 @@
           <t>La Pierre levée de Silly en Gouffern</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve en lisière de forêt de petite Gouffern, sur la commune de Silly en Gouffern, un menhir monolithe de grès rougeâtre d'une hauteur de 5,4 mètres datant d'environ 5000 ans. Sur la face nord du mégalithe, on trouve plusieurs excavations dont certaines auraient été creusées par la main de l'Homme.
 La légende veut que les trous situés à son sommet soient les empreintes de doigts de fées d'où l'autre nom "Pierre levée des fées de Gouffern".
 Des sondages autour du monolithe au cours du XIXe siècle auraient révélé une quantité considérable de crânes de loups à son pied.
 Les blocs de grès se trouvant à cet endroit seraient les restes d'un dolmen imposant érigé près de la Pierre Levée.
-La Pierre levée est classée Monument historique[4].
+La Pierre levée est classée Monument historique.
 </t>
         </is>
       </c>
